--- a/experiments/ana-flavia-NRxSTD-NR-trim/sheets/relative-all_frequencies.xlsx
+++ b/experiments/ana-flavia-NRxSTD-NR-trim/sheets/relative-all_frequencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
   <si>
     <t>total_sum</t>
   </si>
@@ -31,40 +31,40 @@
     <t>STD-NR</t>
   </si>
   <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
-  </si>
-  <si>
-    <t>210421121685</t>
-  </si>
-  <si>
-    <t>210421121686</t>
-  </si>
-  <si>
-    <t>210421121687</t>
-  </si>
-  <si>
-    <t>210421121703</t>
-  </si>
-  <si>
-    <t>210421121704</t>
-  </si>
-  <si>
-    <t>210421121705</t>
-  </si>
-  <si>
-    <t>210421121706</t>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
+  </si>
+  <si>
+    <t>S210421121685</t>
+  </si>
+  <si>
+    <t>S210421121686</t>
+  </si>
+  <si>
+    <t>S210421121687</t>
+  </si>
+  <si>
+    <t>S210421121703</t>
+  </si>
+  <si>
+    <t>S210421121704</t>
+  </si>
+  <si>
+    <t>S210421121705</t>
+  </si>
+  <si>
+    <t>S210421121706</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -583,12 +583,12 @@
     <t>Coriobacteriaceae_UCG-002</t>
   </si>
   <si>
+    <t>Papillibacter</t>
+  </si>
+  <si>
     <t>Coprobacillus</t>
   </si>
   <si>
-    <t>Papillibacter</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-006</t>
   </si>
   <si>
@@ -700,24 +700,24 @@
     <t>[Eubacterium]_brachy_group</t>
   </si>
   <si>
+    <t>UCG-004</t>
+  </si>
+  <si>
+    <t>Achromobacter</t>
+  </si>
+  <si>
+    <t>Aerococcus</t>
+  </si>
+  <si>
+    <t>UCG-007</t>
+  </si>
+  <si>
+    <t>Parvibacter</t>
+  </si>
+  <si>
     <t>Rikenella</t>
   </si>
   <si>
-    <t>UCG-004</t>
-  </si>
-  <si>
-    <t>Achromobacter</t>
-  </si>
-  <si>
-    <t>Aerococcus</t>
-  </si>
-  <si>
-    <t>UCG-007</t>
-  </si>
-  <si>
-    <t>Parvibacter</t>
-  </si>
-  <si>
     <t>Paludicola</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>UCG-003</t>
+  </si>
+  <si>
     <t>Corynebacterium</t>
   </si>
   <si>
-    <t>UCG-003</t>
-  </si>
-  <si>
     <t>Acinetobacter</t>
   </si>
   <si>
@@ -760,15 +760,15 @@
     <t>Intestinimonas</t>
   </si>
   <si>
+    <t>Anaerofilum</t>
+  </si>
+  <si>
     <t>Lachnospiraceae_NC2004_group</t>
   </si>
   <si>
     <t>Odoribacter</t>
   </si>
   <si>
-    <t>Anaerofilum</t>
-  </si>
-  <si>
     <t>Peptococcus</t>
   </si>
   <si>
@@ -778,18 +778,21 @@
     <t>Mucispirillum</t>
   </si>
   <si>
+    <t>Lachnospiraceae_UCG-010</t>
+  </si>
+  <si>
     <t>ASF356</t>
   </si>
   <si>
-    <t>Lachnospiraceae_UCG-010</t>
-  </si>
-  <si>
     <t>Comamonas</t>
   </si>
   <si>
     <t>Lachnospiraceae_FCS020_group</t>
   </si>
   <si>
+    <t>[Eubacterium]_fissicatena_group</t>
+  </si>
+  <si>
     <t>Bacillus</t>
   </si>
   <si>
@@ -802,12 +805,12 @@
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>Faecalitalea</t>
+  </si>
+  <si>
     <t>DTU089</t>
   </si>
   <si>
-    <t>Faecalitalea</t>
-  </si>
-  <si>
     <t>Microvirga</t>
   </si>
   <si>
@@ -865,12 +868,12 @@
     <t>Bifidobacterium_animalis</t>
   </si>
   <si>
+    <t>Clostridiales_bacterium</t>
+  </si>
+  <si>
     <t>uncultured_Barnesiella</t>
   </si>
   <si>
-    <t>Clostridiales_bacterium</t>
-  </si>
-  <si>
     <t>uncultured_Ruminococcus</t>
   </si>
   <si>
@@ -886,12 +889,12 @@
     <t>unidentified_rumen</t>
   </si>
   <si>
+    <t>uncultured_Clostridiales</t>
+  </si>
+  <si>
     <t>bacterium_NLAE-zl-H60</t>
   </si>
   <si>
-    <t>uncultured_Clostridiales</t>
-  </si>
-  <si>
     <t>uncultured_prokaryote</t>
   </si>
   <si>
@@ -910,10 +913,10 @@
     <t>uncultured_Clostridium</t>
   </si>
   <si>
+    <t>[Clostridium]_leptum</t>
+  </si>
+  <si>
     <t>Alistipes_timonensis</t>
-  </si>
-  <si>
-    <t>[Clostridium]_leptum</t>
   </si>
   <si>
     <t>Extibacter_muris</t>
@@ -1543,16 +1546,16 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.68696</v>
+        <v>0.68684</v>
       </c>
       <c r="C2">
-        <v>0.7883</v>
+        <v>0.78838</v>
       </c>
       <c r="D2">
-        <v>0.58155</v>
+        <v>0.58126</v>
       </c>
       <c r="E2">
-        <v>0.80685</v>
+        <v>0.80696</v>
       </c>
       <c r="F2">
         <v>0.7900700000000001</v>
@@ -1561,31 +1564,31 @@
         <v>0.8577399999999999</v>
       </c>
       <c r="H2">
-        <v>0.59893</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="I2">
         <v>0.88511</v>
       </c>
       <c r="J2">
-        <v>0.55588</v>
+        <v>0.55587</v>
       </c>
       <c r="K2">
-        <v>0.699</v>
+        <v>0.69392</v>
       </c>
       <c r="L2">
-        <v>0.1844</v>
+        <v>0.18449</v>
       </c>
       <c r="M2">
         <v>0.009469999999999999</v>
       </c>
       <c r="N2">
-        <v>0.19308</v>
+        <v>0.19314</v>
       </c>
       <c r="O2">
-        <v>0.76901</v>
+        <v>0.76892</v>
       </c>
       <c r="P2">
-        <v>0.51906</v>
+        <v>0.51898</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1593,49 +1596,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.27624</v>
+        <v>0.27637</v>
       </c>
       <c r="C3">
-        <v>0.16494</v>
+        <v>0.16491</v>
       </c>
       <c r="D3">
-        <v>0.39199</v>
+        <v>0.39228</v>
       </c>
       <c r="E3">
-        <v>0.0432</v>
+        <v>0.04322</v>
       </c>
       <c r="F3">
-        <v>0.20549</v>
+        <v>0.20548</v>
       </c>
       <c r="G3">
         <v>0.13749</v>
       </c>
       <c r="H3">
-        <v>0.38619</v>
+        <v>0.38605</v>
       </c>
       <c r="I3">
-        <v>0.10903</v>
+        <v>0.10902</v>
       </c>
       <c r="J3">
-        <v>0.42222</v>
+        <v>0.42223</v>
       </c>
       <c r="K3">
-        <v>0.29009</v>
+        <v>0.29525</v>
       </c>
       <c r="L3">
-        <v>0.78691</v>
+        <v>0.78677</v>
       </c>
       <c r="M3">
         <v>0.88923</v>
       </c>
       <c r="N3">
-        <v>0.79273</v>
+        <v>0.79266</v>
       </c>
       <c r="O3">
-        <v>0.21595</v>
+        <v>0.21602</v>
       </c>
       <c r="P3">
-        <v>0.44351</v>
+        <v>0.44353</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1652,7 +1655,7 @@
         <v>0.00267</v>
       </c>
       <c r="E4">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1670,10 +1673,10 @@
         <v>0.00791</v>
       </c>
       <c r="K4">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L4">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1693,16 +1696,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.00717</v>
+        <v>0.00715</v>
       </c>
       <c r="C5">
-        <v>0.00669</v>
+        <v>0.00665</v>
       </c>
       <c r="D5">
-        <v>0.00766</v>
+        <v>0.00767</v>
       </c>
       <c r="E5">
-        <v>0.01406</v>
+        <v>0.01389</v>
       </c>
       <c r="F5">
         <v>0.00264</v>
@@ -1711,31 +1714,31 @@
         <v>0.00467</v>
       </c>
       <c r="H5">
-        <v>0.00419</v>
+        <v>0.0042</v>
       </c>
       <c r="I5">
         <v>0.00303</v>
       </c>
       <c r="J5">
-        <v>0.00549</v>
+        <v>0.00548</v>
       </c>
       <c r="K5">
-        <v>0.00248</v>
+        <v>0.00246</v>
       </c>
       <c r="L5">
         <v>0.00422</v>
       </c>
       <c r="M5">
-        <v>0.05829</v>
+        <v>0.05836</v>
       </c>
       <c r="N5">
         <v>0.01124</v>
       </c>
       <c r="O5">
-        <v>0.00991</v>
+        <v>0.00993</v>
       </c>
       <c r="P5">
-        <v>0.00587</v>
+        <v>0.00589</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M6">
         <v>0.01579</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1811,7 +1814,7 @@
         <v>0.00011</v>
       </c>
       <c r="H7">
-        <v>0.009180000000000001</v>
+        <v>0.00916</v>
       </c>
       <c r="I7">
         <v>0.00236</v>
@@ -1820,13 +1823,13 @@
         <v>0.0037</v>
       </c>
       <c r="K7">
-        <v>0.00156</v>
+        <v>0.00155</v>
       </c>
       <c r="L7">
-        <v>0.00544</v>
+        <v>0.00545</v>
       </c>
       <c r="M7">
-        <v>0.02614</v>
+        <v>0.02608</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1920,7 +1923,7 @@
         <v>0.0044</v>
       </c>
       <c r="K9">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2203,16 +2206,16 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.68696</v>
+        <v>0.68684</v>
       </c>
       <c r="C2">
-        <v>0.7883</v>
+        <v>0.78838</v>
       </c>
       <c r="D2">
-        <v>0.58155</v>
+        <v>0.58126</v>
       </c>
       <c r="E2">
-        <v>0.80685</v>
+        <v>0.80696</v>
       </c>
       <c r="F2">
         <v>0.7900700000000001</v>
@@ -2221,31 +2224,31 @@
         <v>0.8577399999999999</v>
       </c>
       <c r="H2">
-        <v>0.59893</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="I2">
         <v>0.88511</v>
       </c>
       <c r="J2">
-        <v>0.55588</v>
+        <v>0.55587</v>
       </c>
       <c r="K2">
-        <v>0.699</v>
+        <v>0.69392</v>
       </c>
       <c r="L2">
-        <v>0.1844</v>
+        <v>0.18449</v>
       </c>
       <c r="M2">
         <v>0.009469999999999999</v>
       </c>
       <c r="N2">
-        <v>0.19308</v>
+        <v>0.19314</v>
       </c>
       <c r="O2">
-        <v>0.76901</v>
+        <v>0.76892</v>
       </c>
       <c r="P2">
-        <v>0.51906</v>
+        <v>0.51898</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2253,25 +2256,25 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.21016</v>
+        <v>0.2103</v>
       </c>
       <c r="C3">
-        <v>0.11555</v>
+        <v>0.11551</v>
       </c>
       <c r="D3">
-        <v>0.30855</v>
+        <v>0.30887</v>
       </c>
       <c r="E3">
-        <v>0.02759</v>
+        <v>0.0276</v>
       </c>
       <c r="F3">
-        <v>0.07811999999999999</v>
+        <v>0.0781</v>
       </c>
       <c r="G3">
         <v>0.11515</v>
       </c>
       <c r="H3">
-        <v>0.28528</v>
+        <v>0.2851</v>
       </c>
       <c r="I3">
         <v>0.06358999999999999</v>
@@ -2280,22 +2283,22 @@
         <v>0.35716</v>
       </c>
       <c r="K3">
-        <v>0.23259</v>
+        <v>0.23811</v>
       </c>
       <c r="L3">
-        <v>0.49222</v>
+        <v>0.49234</v>
       </c>
       <c r="M3">
-        <v>0.60676</v>
+        <v>0.60673</v>
       </c>
       <c r="N3">
-        <v>0.39355</v>
+        <v>0.39337</v>
       </c>
       <c r="O3">
-        <v>0.18565</v>
+        <v>0.18573</v>
       </c>
       <c r="P3">
-        <v>0.34832</v>
+        <v>0.34825</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2303,49 +2306,49 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0648</v>
+        <v>0.06479</v>
       </c>
       <c r="C4">
-        <v>0.04939</v>
+        <v>0.0494</v>
       </c>
       <c r="D4">
-        <v>0.08082</v>
+        <v>0.08079</v>
       </c>
       <c r="E4">
         <v>0.01562</v>
       </c>
       <c r="F4">
-        <v>0.12737</v>
+        <v>0.12738</v>
       </c>
       <c r="G4">
-        <v>0.02233</v>
+        <v>0.02234</v>
       </c>
       <c r="H4">
-        <v>0.10091</v>
+        <v>0.10095</v>
       </c>
       <c r="I4">
         <v>0.04544</v>
       </c>
       <c r="J4">
-        <v>0.06506000000000001</v>
+        <v>0.06507</v>
       </c>
       <c r="K4">
-        <v>0.0575</v>
+        <v>0.05714</v>
       </c>
       <c r="L4">
-        <v>0.29468</v>
+        <v>0.29443</v>
       </c>
       <c r="M4">
-        <v>0.28248</v>
+        <v>0.28249</v>
       </c>
       <c r="N4">
-        <v>0.39917</v>
+        <v>0.39929</v>
       </c>
       <c r="O4">
-        <v>0.02268</v>
+        <v>0.02267</v>
       </c>
       <c r="P4">
-        <v>0.094</v>
+        <v>0.09408999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2362,7 +2365,7 @@
         <v>0.00267</v>
       </c>
       <c r="E5">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2380,10 +2383,10 @@
         <v>0.00791</v>
       </c>
       <c r="K5">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L5">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2403,16 +2406,16 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.00679</v>
+        <v>0.00678</v>
       </c>
       <c r="C6">
-        <v>0.00663</v>
+        <v>0.00659</v>
       </c>
       <c r="D6">
-        <v>0.00696</v>
+        <v>0.00697</v>
       </c>
       <c r="E6">
-        <v>0.01402</v>
+        <v>0.01386</v>
       </c>
       <c r="F6">
         <v>0.00264</v>
@@ -2430,22 +2433,22 @@
         <v>0.00522</v>
       </c>
       <c r="K6">
-        <v>0.00248</v>
+        <v>0.00246</v>
       </c>
       <c r="L6">
         <v>0.00422</v>
       </c>
       <c r="M6">
-        <v>0.05639</v>
+        <v>0.05646</v>
       </c>
       <c r="N6">
         <v>0.01124</v>
       </c>
       <c r="O6">
-        <v>0.00813</v>
+        <v>0.008160000000000001</v>
       </c>
       <c r="P6">
-        <v>0.00559</v>
+        <v>0.00562</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M7">
         <v>0.01579</v>
@@ -2495,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="I8">
         <v>0.00037</v>
@@ -2530,7 +2533,7 @@
         <v>0.00292</v>
       </c>
       <c r="K8">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2577,22 +2580,22 @@
         <v>0.00198</v>
       </c>
       <c r="J9">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="K9">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L9">
-        <v>0.00544</v>
+        <v>0.00545</v>
       </c>
       <c r="M9">
-        <v>0.02349</v>
+        <v>0.02343</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="P9">
         <v>0.00203</v>
@@ -2730,7 +2733,7 @@
         <v>0.0044</v>
       </c>
       <c r="K12">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3063,16 +3066,16 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>0.68696</v>
+        <v>0.68684</v>
       </c>
       <c r="C2">
-        <v>0.7883</v>
+        <v>0.78838</v>
       </c>
       <c r="D2">
-        <v>0.58155</v>
+        <v>0.58126</v>
       </c>
       <c r="E2">
-        <v>0.80685</v>
+        <v>0.80696</v>
       </c>
       <c r="F2">
         <v>0.7900700000000001</v>
@@ -3081,31 +3084,31 @@
         <v>0.8577399999999999</v>
       </c>
       <c r="H2">
-        <v>0.59893</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="I2">
         <v>0.88511</v>
       </c>
       <c r="J2">
-        <v>0.55588</v>
+        <v>0.55587</v>
       </c>
       <c r="K2">
-        <v>0.699</v>
+        <v>0.69392</v>
       </c>
       <c r="L2">
-        <v>0.1844</v>
+        <v>0.18449</v>
       </c>
       <c r="M2">
         <v>0.009469999999999999</v>
       </c>
       <c r="N2">
-        <v>0.19308</v>
+        <v>0.19314</v>
       </c>
       <c r="O2">
-        <v>0.76901</v>
+        <v>0.76892</v>
       </c>
       <c r="P2">
-        <v>0.51906</v>
+        <v>0.51898</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3113,49 +3116,49 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0.07393</v>
+        <v>0.07399</v>
       </c>
       <c r="C3">
-        <v>0.05944</v>
+        <v>0.05939</v>
       </c>
       <c r="D3">
-        <v>0.08901000000000001</v>
+        <v>0.08918</v>
       </c>
       <c r="E3">
-        <v>0.01588</v>
+        <v>0.01589</v>
       </c>
       <c r="F3">
-        <v>0.01715</v>
+        <v>0.01716</v>
       </c>
       <c r="G3">
-        <v>0.07919</v>
+        <v>0.07918</v>
       </c>
       <c r="H3">
-        <v>0.13985</v>
+        <v>0.13963</v>
       </c>
       <c r="I3">
-        <v>0.01838</v>
+        <v>0.01837</v>
       </c>
       <c r="J3">
-        <v>0.12947</v>
+        <v>0.12949</v>
       </c>
       <c r="K3">
-        <v>0.07749</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="L3">
-        <v>0.21064</v>
+        <v>0.21067</v>
       </c>
       <c r="M3">
         <v>0.05943</v>
       </c>
       <c r="N3">
-        <v>0.14222</v>
+        <v>0.14227</v>
       </c>
       <c r="O3">
-        <v>0.10849</v>
+        <v>0.10857</v>
       </c>
       <c r="P3">
-        <v>0.03148</v>
+        <v>0.03151</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3163,49 +3166,49 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0.07083</v>
+        <v>0.07097000000000001</v>
       </c>
       <c r="C4">
         <v>0.03828</v>
       </c>
       <c r="D4">
-        <v>0.10469</v>
+        <v>0.10495</v>
       </c>
       <c r="E4">
         <v>0.007990000000000001</v>
       </c>
       <c r="F4">
-        <v>0.05772</v>
+        <v>0.0577</v>
       </c>
       <c r="G4">
         <v>0.03057</v>
       </c>
       <c r="H4">
-        <v>0.08013000000000001</v>
+        <v>0.08016</v>
       </c>
       <c r="I4">
-        <v>0.03773</v>
+        <v>0.03774</v>
       </c>
       <c r="J4">
-        <v>0.13272</v>
+        <v>0.13271</v>
       </c>
       <c r="K4">
-        <v>0.09556000000000001</v>
+        <v>0.09979</v>
       </c>
       <c r="L4">
-        <v>0.20201</v>
+        <v>0.20208</v>
       </c>
       <c r="M4">
-        <v>0.06358999999999999</v>
+        <v>0.06353</v>
       </c>
       <c r="N4">
-        <v>0.14459</v>
+        <v>0.14434</v>
       </c>
       <c r="O4">
-        <v>0.06723</v>
+        <v>0.06722</v>
       </c>
       <c r="P4">
-        <v>0.10636</v>
+        <v>0.10634</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3213,13 +3216,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.04306</v>
+        <v>0.04301</v>
       </c>
       <c r="C5">
         <v>0.00039</v>
       </c>
       <c r="D5">
-        <v>0.08745</v>
+        <v>0.08733</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3237,25 +3240,25 @@
         <v>0.00157</v>
       </c>
       <c r="J5">
-        <v>0.07059</v>
+        <v>0.07058</v>
       </c>
       <c r="K5">
-        <v>0.05236</v>
+        <v>0.05201</v>
       </c>
       <c r="L5">
-        <v>0.07127</v>
+        <v>0.07128</v>
       </c>
       <c r="M5">
-        <v>0.16628</v>
+        <v>0.16629</v>
       </c>
       <c r="N5">
-        <v>0.08043</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="O5">
         <v>1E-05</v>
       </c>
       <c r="P5">
-        <v>0.17561</v>
+        <v>0.17549</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3275,37 +3278,37 @@
         <v>0.00912</v>
       </c>
       <c r="F6">
-        <v>0.12435</v>
+        <v>0.12436</v>
       </c>
       <c r="G6">
         <v>0.01867</v>
       </c>
       <c r="H6">
-        <v>0.08914</v>
+        <v>0.08917</v>
       </c>
       <c r="I6">
-        <v>0.03995</v>
+        <v>0.03994</v>
       </c>
       <c r="J6">
-        <v>0.04293</v>
+        <v>0.04294</v>
       </c>
       <c r="K6">
-        <v>0.0507</v>
+        <v>0.05039</v>
       </c>
       <c r="L6">
-        <v>0.26597</v>
+        <v>0.26611</v>
       </c>
       <c r="M6">
-        <v>0.13514</v>
+        <v>0.13515</v>
       </c>
       <c r="N6">
-        <v>0.38823</v>
+        <v>0.38835</v>
       </c>
       <c r="O6">
         <v>0.01011</v>
       </c>
       <c r="P6">
-        <v>0.01589</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3322,7 +3325,7 @@
         <v>0.00267</v>
       </c>
       <c r="E7">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3340,10 +3343,10 @@
         <v>0.00791</v>
       </c>
       <c r="K7">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L7">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3381,7 +3384,7 @@
         <v>0.00123</v>
       </c>
       <c r="H8">
-        <v>0.00513</v>
+        <v>0.00514</v>
       </c>
       <c r="I8">
         <v>0.00157</v>
@@ -3390,22 +3393,22 @@
         <v>0.01013</v>
       </c>
       <c r="K8">
-        <v>0.00178</v>
+        <v>0.00176</v>
       </c>
       <c r="L8">
         <v>0.00067</v>
       </c>
       <c r="M8">
-        <v>0.10578</v>
+        <v>0.10579</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0108</v>
+        <v>0.01079</v>
       </c>
       <c r="P8">
-        <v>0.07006999999999999</v>
+        <v>0.07015</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3419,7 +3422,7 @@
         <v>0.01366</v>
       </c>
       <c r="D9">
-        <v>0.008370000000000001</v>
+        <v>0.008359999999999999</v>
       </c>
       <c r="E9">
         <v>0.00136</v>
@@ -3428,10 +3431,10 @@
         <v>0.00175</v>
       </c>
       <c r="G9">
-        <v>0.00376</v>
+        <v>0.00377</v>
       </c>
       <c r="H9">
-        <v>0.05358</v>
+        <v>0.0536</v>
       </c>
       <c r="I9">
         <v>0.00457</v>
@@ -3440,7 +3443,7 @@
         <v>0.01161</v>
       </c>
       <c r="K9">
-        <v>0.00244</v>
+        <v>0.00242</v>
       </c>
       <c r="L9">
         <v>0.00364</v>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M10">
         <v>0.01579</v>
@@ -3505,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3555,7 +3558,7 @@
         <v>0.00103</v>
       </c>
       <c r="P11">
-        <v>0.02052</v>
+        <v>0.02055</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3587,10 +3590,10 @@
         <v>0.00229</v>
       </c>
       <c r="J12">
-        <v>0.00684</v>
+        <v>0.00685</v>
       </c>
       <c r="K12">
-        <v>0.00395</v>
+        <v>0.00392</v>
       </c>
       <c r="L12">
         <v>0.00338</v>
@@ -3613,13 +3616,13 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <v>0.00342</v>
+        <v>0.00343</v>
       </c>
       <c r="C13">
         <v>0.00302</v>
       </c>
       <c r="D13">
-        <v>0.00384</v>
+        <v>0.00385</v>
       </c>
       <c r="E13">
         <v>0.00573</v>
@@ -3631,7 +3634,7 @@
         <v>0.00367</v>
       </c>
       <c r="H13">
-        <v>0.00079</v>
+        <v>0.0008</v>
       </c>
       <c r="I13">
         <v>0.00144</v>
@@ -3640,22 +3643,22 @@
         <v>0.00341</v>
       </c>
       <c r="K13">
-        <v>0.00223</v>
+        <v>0.00221</v>
       </c>
       <c r="L13">
         <v>0.00043</v>
       </c>
       <c r="M13">
-        <v>0.0204</v>
+        <v>0.02046</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.00557</v>
+        <v>0.00559</v>
       </c>
       <c r="P13">
-        <v>0.00266</v>
+        <v>0.00268</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3663,16 +3666,16 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="C14">
-        <v>0.00348</v>
+        <v>0.00343</v>
       </c>
       <c r="D14">
         <v>0.00206</v>
       </c>
       <c r="E14">
-        <v>0.00829</v>
+        <v>0.00812</v>
       </c>
       <c r="F14">
         <v>0.00173</v>
@@ -3719,7 +3722,7 @@
         <v>0.00011</v>
       </c>
       <c r="D15">
-        <v>0.00548</v>
+        <v>0.00547</v>
       </c>
       <c r="E15">
         <v>0.00014</v>
@@ -3740,13 +3743,13 @@
         <v>0.004</v>
       </c>
       <c r="K15">
-        <v>0.00194</v>
+        <v>0.00191</v>
       </c>
       <c r="L15">
         <v>0.00133</v>
       </c>
       <c r="M15">
-        <v>0.17758</v>
+        <v>0.17759</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3763,13 +3766,13 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <v>0.00249</v>
+        <v>0.00248</v>
       </c>
       <c r="C16">
         <v>0.00019</v>
       </c>
       <c r="D16">
-        <v>0.00488</v>
+        <v>0.00485</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3790,10 +3793,10 @@
         <v>0.00493</v>
       </c>
       <c r="K16">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L16">
-        <v>0.02467</v>
+        <v>0.02428</v>
       </c>
       <c r="M16">
         <v>0.01187</v>
@@ -3849,7 +3852,7 @@
         <v>0.03524</v>
       </c>
       <c r="N17">
-        <v>0.02306</v>
+        <v>0.02307</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3887,22 +3890,22 @@
         <v>0.00198</v>
       </c>
       <c r="J18">
-        <v>0.00078</v>
+        <v>0.00079</v>
       </c>
       <c r="K18">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L18">
-        <v>0.00544</v>
+        <v>0.00545</v>
       </c>
       <c r="M18">
-        <v>0.02349</v>
+        <v>0.02343</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="P18">
         <v>0.00203</v>
@@ -3931,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3940,7 +3943,7 @@
         <v>0.00283</v>
       </c>
       <c r="K19">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4031,7 +4034,7 @@
         <v>0.00113</v>
       </c>
       <c r="H21">
-        <v>0.00062</v>
+        <v>0.00061</v>
       </c>
       <c r="I21">
         <v>0.00032</v>
@@ -4040,7 +4043,7 @@
         <v>0.00685</v>
       </c>
       <c r="K21">
-        <v>0.0028</v>
+        <v>0.00278</v>
       </c>
       <c r="L21">
         <v>0.00052</v>
@@ -4140,7 +4143,7 @@
         <v>0.0044</v>
       </c>
       <c r="K23">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4243,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0012</v>
+        <v>0.00121</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4890,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5273,49 +5276,49 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>0.4615</v>
+        <v>0.46137</v>
       </c>
       <c r="C2">
-        <v>0.47273</v>
+        <v>0.47275</v>
       </c>
       <c r="D2">
-        <v>0.44983</v>
+        <v>0.44953</v>
       </c>
       <c r="E2">
-        <v>0.49772</v>
+        <v>0.49775</v>
       </c>
       <c r="F2">
-        <v>0.43739</v>
+        <v>0.43738</v>
       </c>
       <c r="G2">
-        <v>0.39688</v>
+        <v>0.39689</v>
       </c>
       <c r="H2">
-        <v>0.52826</v>
+        <v>0.52839</v>
       </c>
       <c r="I2">
         <v>0.49711</v>
       </c>
       <c r="J2">
-        <v>0.5347499999999999</v>
+        <v>0.5347</v>
       </c>
       <c r="K2">
-        <v>0.56845</v>
+        <v>0.56431</v>
       </c>
       <c r="L2">
-        <v>0.16646</v>
+        <v>0.16654</v>
       </c>
       <c r="M2">
         <v>0.008840000000000001</v>
       </c>
       <c r="N2">
-        <v>0.14666</v>
+        <v>0.1467</v>
       </c>
       <c r="O2">
-        <v>0.39791</v>
+        <v>0.39782</v>
       </c>
       <c r="P2">
-        <v>0.49117</v>
+        <v>0.49105</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5323,49 +5326,49 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>0.10863</v>
+        <v>0.10865</v>
       </c>
       <c r="C3">
-        <v>0.11102</v>
+        <v>0.11104</v>
       </c>
       <c r="D3">
-        <v>0.10615</v>
+        <v>0.10617</v>
       </c>
       <c r="E3">
-        <v>0.21357</v>
+        <v>0.21362</v>
       </c>
       <c r="F3">
-        <v>0.10789</v>
+        <v>0.10791</v>
       </c>
       <c r="G3">
         <v>0.08109</v>
       </c>
       <c r="H3">
-        <v>0.03104</v>
+        <v>0.03105</v>
       </c>
       <c r="I3">
-        <v>0.09414</v>
+        <v>0.09415999999999999</v>
       </c>
       <c r="J3">
         <v>0.00579</v>
       </c>
       <c r="K3">
-        <v>0.10852</v>
+        <v>0.10772</v>
       </c>
       <c r="L3">
-        <v>0.01198</v>
+        <v>0.01199</v>
       </c>
       <c r="M3">
         <v>0.00063</v>
       </c>
       <c r="N3">
-        <v>0.04642</v>
+        <v>0.04644</v>
       </c>
       <c r="O3">
-        <v>0.30154</v>
+        <v>0.3016</v>
       </c>
       <c r="P3">
-        <v>0.02701</v>
+        <v>0.02704</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5376,34 +5379,34 @@
         <v>0.10215</v>
       </c>
       <c r="C4">
-        <v>0.18581</v>
+        <v>0.18584</v>
       </c>
       <c r="D4">
         <v>0.01513</v>
       </c>
       <c r="E4">
-        <v>0.07036000000000001</v>
+        <v>0.07038</v>
       </c>
       <c r="F4">
-        <v>0.23984</v>
+        <v>0.23985</v>
       </c>
       <c r="G4">
-        <v>0.34047</v>
+        <v>0.34046</v>
       </c>
       <c r="H4">
-        <v>0.03752</v>
+        <v>0.03754</v>
       </c>
       <c r="I4">
         <v>0.2901</v>
       </c>
       <c r="J4">
-        <v>0.008959999999999999</v>
+        <v>0.00899</v>
       </c>
       <c r="K4">
-        <v>0.01475</v>
+        <v>0.01466</v>
       </c>
       <c r="L4">
-        <v>0.00518</v>
+        <v>0.00519</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -5412,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04079</v>
+        <v>0.04078</v>
       </c>
       <c r="P4">
         <v>0.00031</v>
@@ -5423,49 +5426,49 @@
         <v>90</v>
       </c>
       <c r="B5">
-        <v>0.07378</v>
+        <v>0.07384</v>
       </c>
       <c r="C5">
-        <v>0.05932</v>
+        <v>0.05927</v>
       </c>
       <c r="D5">
-        <v>0.08881</v>
+        <v>0.08898</v>
       </c>
       <c r="E5">
-        <v>0.01588</v>
+        <v>0.01589</v>
       </c>
       <c r="F5">
         <v>0.01664</v>
       </c>
       <c r="G5">
-        <v>0.07919</v>
+        <v>0.07918</v>
       </c>
       <c r="H5">
-        <v>0.1398</v>
+        <v>0.13959</v>
       </c>
       <c r="I5">
         <v>0.01799</v>
       </c>
       <c r="J5">
-        <v>0.12869</v>
+        <v>0.1287</v>
       </c>
       <c r="K5">
-        <v>0.07749</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="L5">
-        <v>0.21042</v>
+        <v>0.21045</v>
       </c>
       <c r="M5">
         <v>0.05943</v>
       </c>
       <c r="N5">
-        <v>0.14222</v>
+        <v>0.14227</v>
       </c>
       <c r="O5">
-        <v>0.10849</v>
+        <v>0.10857</v>
       </c>
       <c r="P5">
-        <v>0.03143</v>
+        <v>0.03147</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5473,13 +5476,13 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.04306</v>
+        <v>0.04301</v>
       </c>
       <c r="C6">
         <v>0.00039</v>
       </c>
       <c r="D6">
-        <v>0.08745</v>
+        <v>0.08733</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5497,25 +5500,25 @@
         <v>0.00157</v>
       </c>
       <c r="J6">
-        <v>0.07059</v>
+        <v>0.07058</v>
       </c>
       <c r="K6">
-        <v>0.05236</v>
+        <v>0.05201</v>
       </c>
       <c r="L6">
-        <v>0.07127</v>
+        <v>0.07128</v>
       </c>
       <c r="M6">
-        <v>0.16628</v>
+        <v>0.16629</v>
       </c>
       <c r="N6">
-        <v>0.08043</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="O6">
         <v>1E-05</v>
       </c>
       <c r="P6">
-        <v>0.17561</v>
+        <v>0.17549</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5526,13 +5529,13 @@
         <v>0.04065</v>
       </c>
       <c r="C7">
-        <v>0.04168</v>
+        <v>0.04169</v>
       </c>
       <c r="D7">
         <v>0.03957</v>
       </c>
       <c r="E7">
-        <v>0.008460000000000001</v>
+        <v>0.00847</v>
       </c>
       <c r="F7">
         <v>0.12222</v>
@@ -5541,31 +5544,31 @@
         <v>0.01822</v>
       </c>
       <c r="H7">
-        <v>0.08726</v>
+        <v>0.08729000000000001</v>
       </c>
       <c r="I7">
         <v>0.0375</v>
       </c>
       <c r="J7">
-        <v>0.04275</v>
+        <v>0.04276</v>
       </c>
       <c r="K7">
-        <v>0.0507</v>
+        <v>0.05039</v>
       </c>
       <c r="L7">
-        <v>0.26597</v>
+        <v>0.26611</v>
       </c>
       <c r="M7">
         <v>0.13079</v>
       </c>
       <c r="N7">
-        <v>0.38823</v>
+        <v>0.38835</v>
       </c>
       <c r="O7">
         <v>0.009140000000000001</v>
       </c>
       <c r="P7">
-        <v>0.0151</v>
+        <v>0.01511</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5573,13 +5576,13 @@
         <v>92</v>
       </c>
       <c r="B8">
-        <v>0.02505</v>
+        <v>0.02517</v>
       </c>
       <c r="C8">
-        <v>0.02003</v>
+        <v>0.02002</v>
       </c>
       <c r="D8">
-        <v>0.03026</v>
+        <v>0.03052</v>
       </c>
       <c r="E8">
         <v>0.00614</v>
@@ -5588,19 +5591,19 @@
         <v>0.009849999999999999</v>
       </c>
       <c r="G8">
-        <v>0.02772</v>
+        <v>0.02771</v>
       </c>
       <c r="H8">
-        <v>0.0437</v>
+        <v>0.04366</v>
       </c>
       <c r="I8">
-        <v>0.00574</v>
+        <v>0.00575</v>
       </c>
       <c r="J8">
-        <v>0.07911</v>
+        <v>0.07908999999999999</v>
       </c>
       <c r="K8">
-        <v>0.03528</v>
+        <v>0.03977</v>
       </c>
       <c r="L8">
         <v>0.04582</v>
@@ -5609,13 +5612,13 @@
         <v>0.02078</v>
       </c>
       <c r="N8">
-        <v>0.008569999999999999</v>
+        <v>0.008279999999999999</v>
       </c>
       <c r="O8">
         <v>0.00445</v>
       </c>
       <c r="P8">
-        <v>0.01887</v>
+        <v>0.01875</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5635,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01964</v>
+        <v>0.01963</v>
       </c>
       <c r="G9">
         <v>5E-05</v>
       </c>
       <c r="H9">
-        <v>0.01629</v>
+        <v>0.0163</v>
       </c>
       <c r="I9">
         <v>0.00276</v>
@@ -5650,22 +5653,22 @@
         <v>0.01863</v>
       </c>
       <c r="K9">
-        <v>0.03183</v>
+        <v>0.0316</v>
       </c>
       <c r="L9">
-        <v>0.10597</v>
+        <v>0.106</v>
       </c>
       <c r="M9">
-        <v>0.00739</v>
+        <v>0.00733</v>
       </c>
       <c r="N9">
-        <v>0.09077</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="O9">
-        <v>0.05001</v>
+        <v>0.05</v>
       </c>
       <c r="P9">
-        <v>0.03858</v>
+        <v>0.03862</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5673,13 +5676,13 @@
         <v>94</v>
       </c>
       <c r="B10">
-        <v>0.02139</v>
+        <v>0.0214</v>
       </c>
       <c r="C10">
-        <v>0.01227</v>
+        <v>0.01229</v>
       </c>
       <c r="D10">
-        <v>0.03086</v>
+        <v>0.03087</v>
       </c>
       <c r="E10">
         <v>0.00184</v>
@@ -5688,34 +5691,34 @@
         <v>0.02782</v>
       </c>
       <c r="G10">
-        <v>0.00226</v>
+        <v>0.00227</v>
       </c>
       <c r="H10">
-        <v>0.01917</v>
+        <v>0.01924</v>
       </c>
       <c r="I10">
         <v>0.02863</v>
       </c>
       <c r="J10">
-        <v>0.03017</v>
+        <v>0.03018</v>
       </c>
       <c r="K10">
-        <v>0.02751</v>
+        <v>0.0275</v>
       </c>
       <c r="L10">
-        <v>0.0464</v>
+        <v>0.04643</v>
       </c>
       <c r="M10">
         <v>0.03543</v>
       </c>
       <c r="N10">
-        <v>0.04524</v>
+        <v>0.04525</v>
       </c>
       <c r="O10">
         <v>0.00974</v>
       </c>
       <c r="P10">
-        <v>0.04656</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5732,7 +5735,7 @@
         <v>0.00267</v>
       </c>
       <c r="E11">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5750,10 +5753,10 @@
         <v>0.00791</v>
       </c>
       <c r="K11">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L11">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -5791,22 +5794,22 @@
         <v>0.0008899999999999999</v>
       </c>
       <c r="H12">
-        <v>0.00499</v>
+        <v>0.005</v>
       </c>
       <c r="I12">
         <v>0.00128</v>
       </c>
       <c r="J12">
-        <v>0.00988</v>
+        <v>0.009889999999999999</v>
       </c>
       <c r="K12">
-        <v>0.00156</v>
+        <v>0.00155</v>
       </c>
       <c r="L12">
         <v>0.00017</v>
       </c>
       <c r="M12">
-        <v>0.1035</v>
+        <v>0.10351</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -5815,7 +5818,7 @@
         <v>0.00686</v>
       </c>
       <c r="P12">
-        <v>0.07005</v>
+        <v>0.07013</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5829,13 +5832,13 @@
         <v>0.01507</v>
       </c>
       <c r="D13">
-        <v>0.00852</v>
+        <v>0.00851</v>
       </c>
       <c r="E13">
         <v>0.0252</v>
       </c>
       <c r="F13">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="G13">
         <v>0.02755</v>
@@ -5850,7 +5853,7 @@
         <v>0.00095</v>
       </c>
       <c r="K13">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.02748</v>
+        <v>0.02747</v>
       </c>
       <c r="P13">
         <v>0.00049</v>
@@ -5873,10 +5876,10 @@
         <v>98</v>
       </c>
       <c r="B14">
-        <v>0.01042</v>
+        <v>0.01043</v>
       </c>
       <c r="C14">
-        <v>0.01331</v>
+        <v>0.01332</v>
       </c>
       <c r="D14">
         <v>0.00742</v>
@@ -5891,7 +5894,7 @@
         <v>0.00315</v>
       </c>
       <c r="H14">
-        <v>0.05315</v>
+        <v>0.05317</v>
       </c>
       <c r="I14">
         <v>0.00443</v>
@@ -5900,7 +5903,7 @@
         <v>0.01035</v>
       </c>
       <c r="K14">
-        <v>0.00192</v>
+        <v>0.00191</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -5953,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M15">
         <v>0.01579</v>
@@ -5965,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6015,7 +6018,7 @@
         <v>0.00103</v>
       </c>
       <c r="P16">
-        <v>0.02052</v>
+        <v>0.02055</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6047,10 +6050,10 @@
         <v>0.00229</v>
       </c>
       <c r="J17">
-        <v>0.00684</v>
+        <v>0.00685</v>
       </c>
       <c r="K17">
-        <v>0.00395</v>
+        <v>0.00392</v>
       </c>
       <c r="L17">
         <v>0.00338</v>
@@ -6100,7 +6103,7 @@
         <v>0.00333</v>
       </c>
       <c r="K18">
-        <v>0.00223</v>
+        <v>0.00221</v>
       </c>
       <c r="L18">
         <v>0.00043</v>
@@ -6123,13 +6126,13 @@
         <v>102</v>
       </c>
       <c r="B19">
-        <v>0.00275</v>
+        <v>0.00274</v>
       </c>
       <c r="C19">
         <v>0.00367</v>
       </c>
       <c r="D19">
-        <v>0.00178</v>
+        <v>0.00177</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6150,7 +6153,7 @@
         <v>0.00545</v>
       </c>
       <c r="K19">
-        <v>0.0045</v>
+        <v>0.00447</v>
       </c>
       <c r="L19">
         <v>0.00077</v>
@@ -6162,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.00091</v>
+        <v>0.00087</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -6179,7 +6182,7 @@
         <v>0.00011</v>
       </c>
       <c r="D20">
-        <v>0.00548</v>
+        <v>0.00547</v>
       </c>
       <c r="E20">
         <v>0.00014</v>
@@ -6200,13 +6203,13 @@
         <v>0.004</v>
       </c>
       <c r="K20">
-        <v>0.00194</v>
+        <v>0.00191</v>
       </c>
       <c r="L20">
         <v>0.00133</v>
       </c>
       <c r="M20">
-        <v>0.17758</v>
+        <v>0.17759</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -6223,16 +6226,16 @@
         <v>104</v>
       </c>
       <c r="B21">
-        <v>0.00273</v>
+        <v>0.00271</v>
       </c>
       <c r="C21">
-        <v>0.00344</v>
+        <v>0.0034</v>
       </c>
       <c r="D21">
         <v>0.00199</v>
       </c>
       <c r="E21">
-        <v>0.00817</v>
+        <v>0.00801</v>
       </c>
       <c r="F21">
         <v>0.00173</v>
@@ -6273,13 +6276,13 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>0.00249</v>
+        <v>0.00248</v>
       </c>
       <c r="C22">
         <v>0.00019</v>
       </c>
       <c r="D22">
-        <v>0.00488</v>
+        <v>0.00485</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6300,10 +6303,10 @@
         <v>0.00493</v>
       </c>
       <c r="K22">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L22">
-        <v>0.02467</v>
+        <v>0.02428</v>
       </c>
       <c r="M22">
         <v>0.01187</v>
@@ -6359,7 +6362,7 @@
         <v>0.03524</v>
       </c>
       <c r="N23">
-        <v>0.02306</v>
+        <v>0.02307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6391,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6400,7 +6403,7 @@
         <v>0.00283</v>
       </c>
       <c r="K24">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6465,7 +6468,7 @@
         <v>0.0071</v>
       </c>
       <c r="P25">
-        <v>0.00104</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -6491,7 +6494,7 @@
         <v>0.00113</v>
       </c>
       <c r="H26">
-        <v>0.00062</v>
+        <v>0.00061</v>
       </c>
       <c r="I26">
         <v>0.00032</v>
@@ -6500,7 +6503,7 @@
         <v>0.00685</v>
       </c>
       <c r="K26">
-        <v>0.0028</v>
+        <v>0.00278</v>
       </c>
       <c r="L26">
         <v>0.00052</v>
@@ -6700,7 +6703,7 @@
         <v>0.0044</v>
       </c>
       <c r="K30">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -6879,7 +6882,7 @@
         <v>0.00021</v>
       </c>
       <c r="D34">
-        <v>0.00129</v>
+        <v>0.00128</v>
       </c>
       <c r="E34">
         <v>0.00014</v>
@@ -6900,10 +6903,10 @@
         <v>0.00024</v>
       </c>
       <c r="K34">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L34">
-        <v>0.00049</v>
+        <v>0.0005</v>
       </c>
       <c r="M34">
         <v>0.00227</v>
@@ -6912,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0.00394</v>
+        <v>0.00393</v>
       </c>
       <c r="P34">
         <v>2E-05</v>
@@ -6979,7 +6982,7 @@
         <v>0.00013</v>
       </c>
       <c r="D36">
-        <v>0.00108</v>
+        <v>0.00107</v>
       </c>
       <c r="E36">
         <v>6E-05</v>
@@ -6997,22 +7000,22 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.00035</v>
+        <v>0.00036</v>
       </c>
       <c r="K36">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L36">
         <v>0.00482</v>
       </c>
       <c r="M36">
-        <v>0.01762</v>
+        <v>0.01756</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="P36">
         <v>0.00073</v>
@@ -7103,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.0012</v>
+        <v>0.00121</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -7173,13 +7176,13 @@
         <v>119</v>
       </c>
       <c r="B40">
-        <v>0.00022</v>
+        <v>0.00023</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.00046</v>
+        <v>0.00047</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7206,16 +7209,16 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.01459</v>
+        <v>0.01465</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="P40">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -8100,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8525,7 +8528,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P138"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8583,49 +8586,49 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>0.45582</v>
+        <v>0.45569</v>
       </c>
       <c r="C2">
-        <v>0.462</v>
+        <v>0.46203</v>
       </c>
       <c r="D2">
-        <v>0.44939</v>
+        <v>0.44909</v>
       </c>
       <c r="E2">
-        <v>0.48446</v>
+        <v>0.48449</v>
       </c>
       <c r="F2">
-        <v>0.43149</v>
+        <v>0.4315</v>
       </c>
       <c r="G2">
-        <v>0.38336</v>
+        <v>0.38337</v>
       </c>
       <c r="H2">
-        <v>0.5228699999999999</v>
+        <v>0.52299</v>
       </c>
       <c r="I2">
-        <v>0.48596</v>
+        <v>0.48595</v>
       </c>
       <c r="J2">
-        <v>0.53356</v>
+        <v>0.53351</v>
       </c>
       <c r="K2">
-        <v>0.5663899999999999</v>
+        <v>0.56227</v>
       </c>
       <c r="L2">
-        <v>0.16564</v>
+        <v>0.16573</v>
       </c>
       <c r="M2">
         <v>0.008840000000000001</v>
       </c>
       <c r="N2">
-        <v>0.14666</v>
+        <v>0.1467</v>
       </c>
       <c r="O2">
-        <v>0.39791</v>
+        <v>0.39782</v>
       </c>
       <c r="P2">
-        <v>0.49117</v>
+        <v>0.49105</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8636,34 +8639,34 @@
         <v>0.10215</v>
       </c>
       <c r="C3">
-        <v>0.18581</v>
+        <v>0.18584</v>
       </c>
       <c r="D3">
         <v>0.01513</v>
       </c>
       <c r="E3">
-        <v>0.07036000000000001</v>
+        <v>0.07038</v>
       </c>
       <c r="F3">
-        <v>0.23984</v>
+        <v>0.23985</v>
       </c>
       <c r="G3">
-        <v>0.34047</v>
+        <v>0.34046</v>
       </c>
       <c r="H3">
-        <v>0.03752</v>
+        <v>0.03754</v>
       </c>
       <c r="I3">
         <v>0.2901</v>
       </c>
       <c r="J3">
-        <v>0.008959999999999999</v>
+        <v>0.00899</v>
       </c>
       <c r="K3">
-        <v>0.01475</v>
+        <v>0.01466</v>
       </c>
       <c r="L3">
-        <v>0.00518</v>
+        <v>0.00519</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -8672,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04079</v>
+        <v>0.04078</v>
       </c>
       <c r="P3">
         <v>0.00031</v>
@@ -8683,49 +8686,49 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>0.04328</v>
+        <v>0.0433</v>
       </c>
       <c r="C4">
-        <v>0.03411</v>
+        <v>0.03406</v>
       </c>
       <c r="D4">
-        <v>0.05283</v>
+        <v>0.05292</v>
       </c>
       <c r="E4">
-        <v>0.01124</v>
+        <v>0.01125</v>
       </c>
       <c r="F4">
         <v>0.008030000000000001</v>
       </c>
       <c r="G4">
-        <v>0.06106</v>
+        <v>0.06104</v>
       </c>
       <c r="H4">
-        <v>0.06112</v>
+        <v>0.06087</v>
       </c>
       <c r="I4">
-        <v>0.00763</v>
+        <v>0.00764</v>
       </c>
       <c r="J4">
-        <v>0.11689</v>
+        <v>0.11686</v>
       </c>
       <c r="K4">
-        <v>0.0655</v>
+        <v>0.06642000000000001</v>
       </c>
       <c r="L4">
-        <v>0.06404</v>
+        <v>0.06401</v>
       </c>
       <c r="M4">
-        <v>0.09365</v>
+        <v>0.09372</v>
       </c>
       <c r="N4">
-        <v>0.15937</v>
+        <v>0.15912</v>
       </c>
       <c r="O4">
-        <v>0.03167</v>
+        <v>0.03169</v>
       </c>
       <c r="P4">
-        <v>0.02313</v>
+        <v>0.02318</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8733,13 +8736,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.04306</v>
+        <v>0.04301</v>
       </c>
       <c r="C5">
         <v>0.00039</v>
       </c>
       <c r="D5">
-        <v>0.08745</v>
+        <v>0.08733</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8757,25 +8760,25 @@
         <v>0.00157</v>
       </c>
       <c r="J5">
-        <v>0.07059</v>
+        <v>0.07058</v>
       </c>
       <c r="K5">
-        <v>0.05236</v>
+        <v>0.05201</v>
       </c>
       <c r="L5">
-        <v>0.07127</v>
+        <v>0.07128</v>
       </c>
       <c r="M5">
-        <v>0.16628</v>
+        <v>0.16629</v>
       </c>
       <c r="N5">
-        <v>0.08043</v>
+        <v>0.08044999999999999</v>
       </c>
       <c r="O5">
         <v>1E-05</v>
       </c>
       <c r="P5">
-        <v>0.17561</v>
+        <v>0.17549</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8786,13 +8789,13 @@
         <v>0.04065</v>
       </c>
       <c r="C6">
-        <v>0.04168</v>
+        <v>0.04169</v>
       </c>
       <c r="D6">
         <v>0.03957</v>
       </c>
       <c r="E6">
-        <v>0.008460000000000001</v>
+        <v>0.00847</v>
       </c>
       <c r="F6">
         <v>0.12222</v>
@@ -8801,31 +8804,31 @@
         <v>0.01822</v>
       </c>
       <c r="H6">
-        <v>0.08726</v>
+        <v>0.08729000000000001</v>
       </c>
       <c r="I6">
         <v>0.0375</v>
       </c>
       <c r="J6">
-        <v>0.04275</v>
+        <v>0.04276</v>
       </c>
       <c r="K6">
-        <v>0.0507</v>
+        <v>0.05039</v>
       </c>
       <c r="L6">
-        <v>0.26597</v>
+        <v>0.26611</v>
       </c>
       <c r="M6">
         <v>0.13079</v>
       </c>
       <c r="N6">
-        <v>0.38823</v>
+        <v>0.38835</v>
       </c>
       <c r="O6">
         <v>0.009140000000000001</v>
       </c>
       <c r="P6">
-        <v>0.0151</v>
+        <v>0.01511</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8833,16 +8836,16 @@
         <v>147</v>
       </c>
       <c r="B7">
-        <v>0.03921</v>
+        <v>0.03923</v>
       </c>
       <c r="C7">
-        <v>0.06371</v>
+        <v>0.06372</v>
       </c>
       <c r="D7">
-        <v>0.01372</v>
+        <v>0.01375</v>
       </c>
       <c r="E7">
-        <v>0.0851</v>
+        <v>0.08513</v>
       </c>
       <c r="F7">
         <v>0.06249</v>
@@ -8854,13 +8857,13 @@
         <v>0.025</v>
       </c>
       <c r="I7">
-        <v>0.06544</v>
+        <v>0.06544999999999999</v>
       </c>
       <c r="J7">
         <v>0.00278</v>
       </c>
       <c r="K7">
-        <v>0.01604</v>
+        <v>0.01594</v>
       </c>
       <c r="L7">
         <v>0.00056</v>
@@ -8872,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04031</v>
+        <v>0.04042</v>
       </c>
       <c r="P7">
         <v>0.0009300000000000001</v>
@@ -8886,16 +8889,16 @@
         <v>0.02875</v>
       </c>
       <c r="C8">
-        <v>0.04731</v>
+        <v>0.04732</v>
       </c>
       <c r="D8">
         <v>0.00944</v>
       </c>
       <c r="E8">
-        <v>0.12846</v>
+        <v>0.12849</v>
       </c>
       <c r="F8">
-        <v>0.04541</v>
+        <v>0.04542</v>
       </c>
       <c r="G8">
         <v>0.009169999999999999</v>
@@ -8904,22 +8907,22 @@
         <v>0.00605</v>
       </c>
       <c r="I8">
-        <v>0.0287</v>
+        <v>0.02871</v>
       </c>
       <c r="J8">
         <v>0.00301</v>
       </c>
       <c r="K8">
-        <v>0.09247</v>
+        <v>0.09178</v>
       </c>
       <c r="L8">
-        <v>0.01142</v>
+        <v>0.01143</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.04642</v>
+        <v>0.04644</v>
       </c>
       <c r="O8">
         <v>0.00017</v>
@@ -8945,13 +8948,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01964</v>
+        <v>0.01963</v>
       </c>
       <c r="G9">
         <v>5E-05</v>
       </c>
       <c r="H9">
-        <v>0.01629</v>
+        <v>0.0163</v>
       </c>
       <c r="I9">
         <v>0.00276</v>
@@ -8960,22 +8963,22 @@
         <v>0.01863</v>
       </c>
       <c r="K9">
-        <v>0.03183</v>
+        <v>0.0316</v>
       </c>
       <c r="L9">
-        <v>0.10597</v>
+        <v>0.106</v>
       </c>
       <c r="M9">
-        <v>0.00739</v>
+        <v>0.00733</v>
       </c>
       <c r="N9">
-        <v>0.09077</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="O9">
-        <v>0.05001</v>
+        <v>0.05</v>
       </c>
       <c r="P9">
-        <v>0.03858</v>
+        <v>0.03862</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8992,7 +8995,7 @@
         <v>0.00267</v>
       </c>
       <c r="E10">
-        <v>0.13584</v>
+        <v>0.13587</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9010,10 +9013,10 @@
         <v>0.00791</v>
       </c>
       <c r="K10">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="L10">
-        <v>0.01669</v>
+        <v>0.0167</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -9125,7 +9128,7 @@
         <v>0.10587</v>
       </c>
       <c r="P12">
-        <v>0.01929</v>
+        <v>0.01931</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9136,7 +9139,7 @@
         <v>0.01824</v>
       </c>
       <c r="C13">
-        <v>0.02359</v>
+        <v>0.0236</v>
       </c>
       <c r="D13">
         <v>0.01267</v>
@@ -9151,31 +9154,31 @@
         <v>0.0287</v>
       </c>
       <c r="H13">
-        <v>0.06233</v>
+        <v>0.06236</v>
       </c>
       <c r="I13">
         <v>0.01133</v>
       </c>
       <c r="J13">
-        <v>0.03097</v>
+        <v>0.03099</v>
       </c>
       <c r="K13">
-        <v>0.03334</v>
+        <v>0.03307</v>
       </c>
       <c r="L13">
-        <v>0.0176</v>
+        <v>0.01761</v>
       </c>
       <c r="M13">
         <v>0.00448</v>
       </c>
       <c r="N13">
-        <v>0.01212</v>
+        <v>0.01213</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.00757</v>
+        <v>0.00758</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9183,19 +9186,19 @@
         <v>153</v>
       </c>
       <c r="B14">
-        <v>0.01381</v>
+        <v>0.01382</v>
       </c>
       <c r="C14">
-        <v>0.0081</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="D14">
-        <v>0.01975</v>
+        <v>0.01976</v>
       </c>
       <c r="E14">
         <v>0.00117</v>
       </c>
       <c r="F14">
-        <v>0.02395</v>
+        <v>0.02396</v>
       </c>
       <c r="G14">
         <v>0.00108</v>
@@ -9207,13 +9210,13 @@
         <v>0.02627</v>
       </c>
       <c r="J14">
-        <v>0.0139</v>
+        <v>0.01391</v>
       </c>
       <c r="K14">
-        <v>0.01454</v>
+        <v>0.01462</v>
       </c>
       <c r="L14">
-        <v>0.01998</v>
+        <v>0.01999</v>
       </c>
       <c r="M14">
         <v>0.01579</v>
@@ -9225,7 +9228,7 @@
         <v>0.00203</v>
       </c>
       <c r="P14">
-        <v>0.03936</v>
+        <v>0.03941</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9233,13 +9236,13 @@
         <v>73</v>
       </c>
       <c r="B15">
-        <v>0.01207</v>
+        <v>0.0122</v>
       </c>
       <c r="C15">
-        <v>0.01003</v>
+        <v>0.01004</v>
       </c>
       <c r="D15">
-        <v>0.01419</v>
+        <v>0.01446</v>
       </c>
       <c r="E15">
         <v>0.00284</v>
@@ -9251,16 +9254,16 @@
         <v>0.00257</v>
       </c>
       <c r="H15">
-        <v>0.03724</v>
+        <v>0.03726</v>
       </c>
       <c r="I15">
         <v>0.00189</v>
       </c>
       <c r="J15">
-        <v>0.04098</v>
+        <v>0.04099</v>
       </c>
       <c r="K15">
-        <v>0.01888</v>
+        <v>0.02267</v>
       </c>
       <c r="L15">
         <v>0.00512</v>
@@ -9275,7 +9278,7 @@
         <v>0.00523</v>
       </c>
       <c r="P15">
-        <v>0.00601</v>
+        <v>0.00602</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9289,13 +9292,13 @@
         <v>0.01507</v>
       </c>
       <c r="D16">
-        <v>0.00852</v>
+        <v>0.00851</v>
       </c>
       <c r="E16">
         <v>0.0252</v>
       </c>
       <c r="F16">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="G16">
         <v>0.02755</v>
@@ -9310,7 +9313,7 @@
         <v>0.00095</v>
       </c>
       <c r="K16">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -9322,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02748</v>
+        <v>0.02747</v>
       </c>
       <c r="P16">
         <v>0.00049</v>
@@ -9333,10 +9336,10 @@
         <v>155</v>
       </c>
       <c r="B17">
-        <v>0.01042</v>
+        <v>0.01043</v>
       </c>
       <c r="C17">
-        <v>0.01331</v>
+        <v>0.01332</v>
       </c>
       <c r="D17">
         <v>0.00742</v>
@@ -9351,7 +9354,7 @@
         <v>0.00315</v>
       </c>
       <c r="H17">
-        <v>0.05315</v>
+        <v>0.05317</v>
       </c>
       <c r="I17">
         <v>0.00443</v>
@@ -9360,7 +9363,7 @@
         <v>0.01035</v>
       </c>
       <c r="K17">
-        <v>0.00192</v>
+        <v>0.00191</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -9401,7 +9404,7 @@
         <v>0.00056</v>
       </c>
       <c r="H18">
-        <v>0.0034</v>
+        <v>0.00341</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -9425,7 +9428,7 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="P18">
-        <v>0.05603</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9433,13 +9436,13 @@
         <v>157</v>
       </c>
       <c r="B19">
-        <v>0.008699999999999999</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="C19">
         <v>0.00825</v>
       </c>
       <c r="D19">
-        <v>0.009180000000000001</v>
+        <v>0.00928</v>
       </c>
       <c r="E19">
         <v>0.0046</v>
@@ -9451,7 +9454,7 @@
         <v>0.00323</v>
       </c>
       <c r="H19">
-        <v>0.02577</v>
+        <v>0.02576</v>
       </c>
       <c r="I19">
         <v>0.00261</v>
@@ -9460,7 +9463,7 @@
         <v>0.01733</v>
       </c>
       <c r="K19">
-        <v>0.00203</v>
+        <v>0.00356</v>
       </c>
       <c r="L19">
         <v>0.04029</v>
@@ -9475,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.0086</v>
+        <v>0.00861</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -9504,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="J20">
         <v>0.00055</v>
@@ -9513,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0012</v>
+        <v>0.00121</v>
       </c>
       <c r="M20">
         <v>0.00278</v>
@@ -9522,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.0428</v>
+        <v>0.04279</v>
       </c>
       <c r="P20">
         <v>0.00055</v>
@@ -9545,13 +9548,13 @@
         <v>0.01326</v>
       </c>
       <c r="F21">
-        <v>0.0059</v>
+        <v>0.00588</v>
       </c>
       <c r="G21">
         <v>0.01352</v>
       </c>
       <c r="H21">
-        <v>0.00539</v>
+        <v>0.0054</v>
       </c>
       <c r="I21">
         <v>0.01116</v>
@@ -9560,7 +9563,7 @@
         <v>0.00119</v>
       </c>
       <c r="K21">
-        <v>0.00206</v>
+        <v>0.00205</v>
       </c>
       <c r="L21">
         <v>0.00082</v>
@@ -9589,7 +9592,7 @@
         <v>0.00185</v>
       </c>
       <c r="D22">
-        <v>0.00679</v>
+        <v>0.00678</v>
       </c>
       <c r="E22">
         <v>6E-05</v>
@@ -9622,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.02266</v>
+        <v>0.02265</v>
       </c>
       <c r="P22">
         <v>8.000000000000001E-05</v>
@@ -9663,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.00215</v>
+        <v>0.00217</v>
       </c>
       <c r="M23">
         <v>0.01579</v>
@@ -9675,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.02279</v>
+        <v>0.02282</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9725,7 +9728,7 @@
         <v>0.00103</v>
       </c>
       <c r="P24">
-        <v>0.02052</v>
+        <v>0.02055</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9736,7 +9739,7 @@
         <v>0.00348</v>
       </c>
       <c r="C25">
-        <v>4E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="D25">
         <v>0.00705</v>
@@ -9760,13 +9763,13 @@
         <v>0.00808</v>
       </c>
       <c r="K25">
-        <v>0.00079</v>
+        <v>0.00078</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.06801</v>
+        <v>0.06802</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -9775,7 +9778,7 @@
         <v>0.00289</v>
       </c>
       <c r="P25">
-        <v>0.008959999999999999</v>
+        <v>0.008970000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9825,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0.00452</v>
+        <v>0.00453</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9860,7 +9863,7 @@
         <v>0.00333</v>
       </c>
       <c r="K27">
-        <v>0.00223</v>
+        <v>0.00221</v>
       </c>
       <c r="L27">
         <v>0.00043</v>
@@ -9889,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.00592</v>
+        <v>0.00591</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -9922,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0.02044</v>
+        <v>0.02041</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -9933,16 +9936,16 @@
         <v>167</v>
       </c>
       <c r="B29">
-        <v>0.00273</v>
+        <v>0.00271</v>
       </c>
       <c r="C29">
-        <v>0.00344</v>
+        <v>0.0034</v>
       </c>
       <c r="D29">
         <v>0.00199</v>
       </c>
       <c r="E29">
-        <v>0.00817</v>
+        <v>0.00801</v>
       </c>
       <c r="F29">
         <v>0.00173</v>
@@ -10013,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.09811</v>
+        <v>0.09816999999999999</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -10060,7 +10063,7 @@
         <v>0.00545</v>
       </c>
       <c r="K31">
-        <v>0.0045</v>
+        <v>0.00447</v>
       </c>
       <c r="L31">
         <v>0.00077</v>
@@ -10083,7 +10086,7 @@
         <v>170</v>
       </c>
       <c r="B32">
-        <v>0.00268</v>
+        <v>0.00267</v>
       </c>
       <c r="C32">
         <v>8.000000000000001E-05</v>
@@ -10110,13 +10113,13 @@
         <v>0.004</v>
       </c>
       <c r="K32">
-        <v>0.00194</v>
+        <v>0.00191</v>
       </c>
       <c r="L32">
         <v>0.00133</v>
       </c>
       <c r="M32">
-        <v>0.17758</v>
+        <v>0.17759</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -10133,13 +10136,13 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <v>0.00249</v>
+        <v>0.00248</v>
       </c>
       <c r="C33">
         <v>0.00019</v>
       </c>
       <c r="D33">
-        <v>0.00488</v>
+        <v>0.00485</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -10160,10 +10163,10 @@
         <v>0.00493</v>
       </c>
       <c r="K33">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L33">
-        <v>0.02467</v>
+        <v>0.02428</v>
       </c>
       <c r="M33">
         <v>0.01187</v>
@@ -10219,7 +10222,7 @@
         <v>0.03524</v>
       </c>
       <c r="N34">
-        <v>0.02306</v>
+        <v>0.02307</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -10307,10 +10310,10 @@
         <v>0.00019</v>
       </c>
       <c r="J36">
-        <v>0.00576</v>
+        <v>0.00577</v>
       </c>
       <c r="K36">
-        <v>0.00357</v>
+        <v>0.00354</v>
       </c>
       <c r="L36">
         <v>0.00297</v>
@@ -10348,7 +10351,7 @@
         <v>0.00387</v>
       </c>
       <c r="G37">
-        <v>0.00084</v>
+        <v>0.00085</v>
       </c>
       <c r="H37">
         <v>0.00531</v>
@@ -10401,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -10410,7 +10413,7 @@
         <v>0.00283</v>
       </c>
       <c r="K38">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -10475,7 +10478,7 @@
         <v>0.0071</v>
       </c>
       <c r="P39">
-        <v>0.00104</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -10510,7 +10513,7 @@
         <v>0.00152</v>
       </c>
       <c r="K40">
-        <v>0.00323</v>
+        <v>0.00321</v>
       </c>
       <c r="L40">
         <v>0.00194</v>
@@ -10560,7 +10563,7 @@
         <v>0.00486</v>
       </c>
       <c r="K41">
-        <v>0.00124</v>
+        <v>0.00123</v>
       </c>
       <c r="L41">
         <v>0.00099</v>
@@ -10613,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.01704</v>
+        <v>0.01705</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -10625,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>0.00374</v>
+        <v>0.00373</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -10760,7 +10763,7 @@
         <v>0.0044</v>
       </c>
       <c r="K45">
-        <v>0.00641</v>
+        <v>0.00636</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -10789,7 +10792,7 @@
         <v>0.00029</v>
       </c>
       <c r="D46">
-        <v>0.00129</v>
+        <v>0.00128</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -10910,7 +10913,7 @@
         <v>0.00624</v>
       </c>
       <c r="K48">
-        <v>0.00144</v>
+        <v>0.00142</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -10933,13 +10936,13 @@
         <v>183</v>
       </c>
       <c r="B49">
-        <v>0.00073</v>
+        <v>0.0007</v>
       </c>
       <c r="C49">
         <v>0.00105</v>
       </c>
       <c r="D49">
-        <v>0.00039</v>
+        <v>0.00034</v>
       </c>
       <c r="E49">
         <v>0.00059</v>
@@ -10957,7 +10960,7 @@
         <v>0.00101</v>
       </c>
       <c r="J49">
-        <v>0.0016</v>
+        <v>0.00159</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -10975,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -11136,16 +11139,16 @@
         <v>0.00047</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="D53">
-        <v>0.00095</v>
+        <v>0.00071</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.00102</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -11154,16 +11157,16 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>0.00091</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>0.00128</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.00123</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>0.00517</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -11172,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0.00328</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -11183,19 +11186,19 @@
         <v>188</v>
       </c>
       <c r="B54">
-        <v>0.00046</v>
+        <v>0.00047</v>
       </c>
       <c r="C54">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.0007</v>
+        <v>0.00095</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.00102</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -11204,16 +11207,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0.00091</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.00128</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0.00106</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0.00516</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -11222,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.00328</v>
       </c>
       <c r="P54">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -11257,10 +11260,10 @@
         <v>0.00042</v>
       </c>
       <c r="J55">
-        <v>0.0012</v>
+        <v>0.00119</v>
       </c>
       <c r="K55">
-        <v>0.00228</v>
+        <v>0.00226</v>
       </c>
       <c r="L55">
         <v>0.00118</v>
@@ -11339,7 +11342,7 @@
         <v>0.0007</v>
       </c>
       <c r="D57">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E57">
         <v>0.00252</v>
@@ -11363,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.00133</v>
+        <v>0.00131</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -11513,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.0012</v>
+        <v>0.00121</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -11583,7 +11586,7 @@
         <v>196</v>
       </c>
       <c r="B62">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C62">
         <v>2E-05</v>
@@ -11607,13 +11610,13 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.00035</v>
+        <v>0.00036</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.00445</v>
+        <v>0.00446</v>
       </c>
       <c r="M62">
         <v>0.00347</v>
@@ -11622,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="P62">
         <v>0.00026</v>
@@ -11813,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0.00942</v>
+        <v>0.009429999999999999</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -11910,13 +11913,13 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L68">
         <v>0.00037</v>
       </c>
       <c r="M68">
-        <v>0.01415</v>
+        <v>0.01408</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -13136,10 +13139,10 @@
         <v>6E-05</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="D93">
-        <v>0.00012</v>
+        <v>0.0001</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -13148,22 +13151,22 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -13172,10 +13175,10 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>0.00043</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -13198,22 +13201,22 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>3E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="H94">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -13225,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>2E-05</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -13236,13 +13239,13 @@
         <v>6E-05</v>
       </c>
       <c r="C95">
-        <v>2E-05</v>
+        <v>0.00012</v>
       </c>
       <c r="D95">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -13254,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -13275,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -13286,28 +13289,28 @@
         <v>6E-05</v>
       </c>
       <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>0.00012</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
       <c r="E96">
-        <v>0.00025</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -13325,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -13336,10 +13339,10 @@
         <v>6E-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="D97">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13348,16 +13351,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.00046</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -13375,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -13386,11 +13389,11 @@
         <v>6E-05</v>
       </c>
       <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
         <v>0.00011</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
       <c r="E98">
         <v>0</v>
       </c>
@@ -13398,10 +13401,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0.00046</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -13422,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.00039</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -13760,7 +13763,7 @@
         <v>0.00033</v>
       </c>
       <c r="K105">
-        <v>0.00038</v>
+        <v>0.00037</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -13872,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>0.00026</v>
+        <v>0.00027</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -13945,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.00081</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -13954,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0.00037</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -13995,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0.00081</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -14004,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>0.00037</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -14160,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -14236,11 +14239,11 @@
         <v>2E-05</v>
       </c>
       <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
         <v>4E-05</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
       <c r="E115">
         <v>0</v>
       </c>
@@ -14248,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -14257,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -14275,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -14286,10 +14289,10 @@
         <v>2E-05</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="D116">
-        <v>4E-05</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -14298,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -14322,10 +14325,10 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>4E-05</v>
+        <v>0</v>
       </c>
       <c r="P116">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -14357,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -14372,10 +14375,10 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="P117">
-        <v>6.999999999999999E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -14586,10 +14589,10 @@
         <v>2E-05</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="D122">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -14598,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -14607,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -14636,11 +14639,11 @@
         <v>2E-05</v>
       </c>
       <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
         <v>3E-05</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
       <c r="E123">
         <v>0</v>
       </c>
@@ -14648,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -14657,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -14822,10 +14825,10 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P126">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -14872,10 +14875,10 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -14889,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>2E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -14922,10 +14925,10 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="P128">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -14972,10 +14975,10 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -14986,11 +14989,11 @@
         <v>1E-05</v>
       </c>
       <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
         <v>2E-05</v>
       </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
       <c r="E130">
         <v>0</v>
       </c>
@@ -14998,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -15022,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -15086,10 +15089,10 @@
         <v>1E-05</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="D132">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -15098,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -15116,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.00088</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -15166,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>0.00088</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -15175,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -15186,11 +15189,11 @@
         <v>1E-05</v>
       </c>
       <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
         <v>2E-05</v>
       </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
       <c r="E134">
         <v>0</v>
       </c>
@@ -15198,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -15225,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -15236,7 +15239,7 @@
         <v>1E-05</v>
       </c>
       <c r="C135">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -15248,10 +15251,10 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H135">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -15283,7 +15286,7 @@
         <v>266</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="C136">
         <v>1E-05</v>
@@ -15292,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -15301,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -15336,13 +15339,13 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D137">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -15363,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -15380,51 +15383,101 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1E-05</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0.00015</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
         <v>2E-05</v>
       </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
         <v>0</v>
       </c>
     </row>
@@ -15490,52 +15543,52 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2">
-        <v>0.51837</v>
+        <v>0.5183</v>
       </c>
       <c r="C2">
-        <v>0.52094</v>
+        <v>0.52099</v>
       </c>
       <c r="D2">
-        <v>0.51571</v>
+        <v>0.5155</v>
       </c>
       <c r="E2">
-        <v>0.60824</v>
+        <v>0.6083499999999999</v>
       </c>
       <c r="F2">
         <v>0.37896</v>
       </c>
       <c r="G2">
-        <v>0.45338</v>
+        <v>0.4534</v>
       </c>
       <c r="H2">
-        <v>0.55062</v>
+        <v>0.55075</v>
       </c>
       <c r="I2">
-        <v>0.51415</v>
+        <v>0.51417</v>
       </c>
       <c r="J2">
-        <v>0.48548</v>
+        <v>0.48528</v>
       </c>
       <c r="K2">
-        <v>0.60817</v>
+        <v>0.60548</v>
       </c>
       <c r="L2">
-        <v>0.37191</v>
+        <v>0.37172</v>
       </c>
       <c r="M2">
-        <v>0.18781</v>
+        <v>0.18776</v>
       </c>
       <c r="N2">
-        <v>0.21053</v>
+        <v>0.21059</v>
       </c>
       <c r="O2">
-        <v>0.51454</v>
+        <v>0.51453</v>
       </c>
       <c r="P2">
-        <v>0.56225</v>
+        <v>0.56223</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -15543,60 +15596,60 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>0.32405</v>
+        <v>0.32404</v>
       </c>
       <c r="C3">
-        <v>0.25506</v>
+        <v>0.25496</v>
       </c>
       <c r="D3">
-        <v>0.39581</v>
+        <v>0.39588</v>
       </c>
       <c r="E3">
-        <v>0.35146</v>
+        <v>0.35135</v>
       </c>
       <c r="F3">
         <v>0.26345</v>
       </c>
       <c r="G3">
-        <v>0.18122</v>
+        <v>0.18121</v>
       </c>
       <c r="H3">
-        <v>0.30387</v>
+        <v>0.30365</v>
       </c>
       <c r="I3">
-        <v>0.15112</v>
+        <v>0.1511</v>
       </c>
       <c r="J3">
-        <v>0.4131</v>
+        <v>0.41313</v>
       </c>
       <c r="K3">
-        <v>0.32118</v>
+        <v>0.32257</v>
       </c>
       <c r="L3">
-        <v>0.55865</v>
+        <v>0.5588</v>
       </c>
       <c r="M3">
-        <v>0.7575</v>
+        <v>0.7575499999999999</v>
       </c>
       <c r="N3">
-        <v>0.73743</v>
+        <v>0.73736</v>
       </c>
       <c r="O3">
-        <v>0.3881</v>
+        <v>0.38815</v>
       </c>
       <c r="P3">
-        <v>0.35581</v>
+        <v>0.35575</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>0.07922999999999999</v>
       </c>
       <c r="C4">
-        <v>0.15518</v>
+        <v>0.1552</v>
       </c>
       <c r="D4">
         <v>0.00024</v>
@@ -15605,13 +15658,13 @@
         <v>0.00503</v>
       </c>
       <c r="F4">
-        <v>0.22947</v>
+        <v>0.2295</v>
       </c>
       <c r="G4">
         <v>0.30614</v>
       </c>
       <c r="H4">
-        <v>0.03073</v>
+        <v>0.03074</v>
       </c>
       <c r="I4">
         <v>0.28162</v>
@@ -15620,7 +15673,7 @@
         <v>0.00042</v>
       </c>
       <c r="K4">
-        <v>0.0007</v>
+        <v>0.00069</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -15640,7 +15693,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5">
         <v>0.01593</v>
@@ -15670,10 +15723,10 @@
         <v>0.05556</v>
       </c>
       <c r="K5">
-        <v>0.02433</v>
+        <v>0.02413</v>
       </c>
       <c r="L5">
-        <v>0.05937</v>
+        <v>0.0594</v>
       </c>
       <c r="M5">
         <v>0.00644</v>
@@ -15685,12 +15738,12 @@
         <v>0.0001</v>
       </c>
       <c r="P5">
-        <v>0.04055</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6">
         <v>0.01576</v>
@@ -15699,19 +15752,19 @@
         <v>0.02496</v>
       </c>
       <c r="D6">
-        <v>0.00619</v>
+        <v>0.0062</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.10531</v>
+        <v>0.10532</v>
       </c>
       <c r="G6">
         <v>0.00677</v>
       </c>
       <c r="H6">
-        <v>0.04735</v>
+        <v>0.04736</v>
       </c>
       <c r="I6">
         <v>0.02823</v>
@@ -15720,7 +15773,7 @@
         <v>0.00713</v>
       </c>
       <c r="K6">
-        <v>0.02225</v>
+        <v>0.02212</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -15735,12 +15788,12 @@
         <v>0.00022</v>
       </c>
       <c r="P6">
-        <v>0.00859</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7">
         <v>0.01082</v>
@@ -15755,7 +15808,7 @@
         <v>0.0252</v>
       </c>
       <c r="F7">
-        <v>0.00203</v>
+        <v>0.00201</v>
       </c>
       <c r="G7">
         <v>0.02755</v>
@@ -15770,7 +15823,7 @@
         <v>0.00095</v>
       </c>
       <c r="K7">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -15790,13 +15843,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8">
-        <v>0.00466</v>
+        <v>0.00465</v>
       </c>
       <c r="C8">
-        <v>0.00673</v>
+        <v>0.00672</v>
       </c>
       <c r="D8">
         <v>0.0025</v>
@@ -15805,22 +15858,22 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.00975</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="G8">
         <v>0.01464</v>
       </c>
       <c r="H8">
-        <v>0.00464</v>
+        <v>0.00465</v>
       </c>
       <c r="I8">
-        <v>0.00645</v>
+        <v>0.00644</v>
       </c>
       <c r="J8">
         <v>0.00038</v>
       </c>
       <c r="K8">
-        <v>0.00201</v>
+        <v>0.00199</v>
       </c>
       <c r="L8">
         <v>0.00127</v>
@@ -15840,7 +15893,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>0.00431</v>
@@ -15852,7 +15905,7 @@
         <v>0.00124</v>
       </c>
       <c r="E9">
-        <v>0.00226</v>
+        <v>0.00227</v>
       </c>
       <c r="F9">
         <v>0.00201</v>
@@ -15861,7 +15914,7 @@
         <v>0.00491</v>
       </c>
       <c r="H9">
-        <v>0.02215</v>
+        <v>0.02216</v>
       </c>
       <c r="I9">
         <v>0.00287</v>
@@ -15890,19 +15943,19 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10">
-        <v>0.00426</v>
+        <v>0.00427</v>
       </c>
       <c r="C10">
         <v>0.00651</v>
       </c>
       <c r="D10">
-        <v>0.00191</v>
+        <v>0.00193</v>
       </c>
       <c r="E10">
-        <v>0.0037</v>
+        <v>0.00369</v>
       </c>
       <c r="F10">
         <v>0.0023</v>
@@ -15911,16 +15964,16 @@
         <v>0.00112</v>
       </c>
       <c r="H10">
-        <v>0.01752</v>
+        <v>0.01753</v>
       </c>
       <c r="I10">
         <v>0.00762</v>
       </c>
       <c r="J10">
-        <v>0.00736</v>
+        <v>0.0075</v>
       </c>
       <c r="K10">
-        <v>0.00271</v>
+        <v>0.00267</v>
       </c>
       <c r="L10">
         <v>0.0025</v>
@@ -15940,7 +15993,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>0.00399</v>
@@ -15990,7 +16043,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>0.0034</v>
@@ -16040,7 +16093,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>0.00274</v>
@@ -16067,10 +16120,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01548</v>
+        <v>0.0155</v>
       </c>
       <c r="K13">
-        <v>0.008920000000000001</v>
+        <v>0.00885</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -16079,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.01212</v>
+        <v>0.01213</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -16090,7 +16143,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>0.00148</v>
@@ -16140,7 +16193,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>0.00132</v>
@@ -16161,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -16170,7 +16223,7 @@
         <v>0.00252</v>
       </c>
       <c r="K15">
-        <v>0.00135</v>
+        <v>0.00134</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -16190,7 +16243,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>0.00129</v>
@@ -16229,27 +16282,27 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.00384</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.00113</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.00657</v>
+        <v>0.00754</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B17">
-        <v>0.00129</v>
+        <v>0.00128</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.00263</v>
+        <v>0.00262</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -16279,18 +16332,18 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.00385</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.00109</v>
       </c>
       <c r="P17">
-        <v>0.00754</v>
+        <v>0.00656</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B18">
         <v>0.00096</v>
@@ -16340,7 +16393,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19">
         <v>0.0009300000000000001</v>
@@ -16390,7 +16443,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B20">
         <v>0.00078</v>
@@ -16435,12 +16488,12 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.00258</v>
+        <v>0.00259</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21">
         <v>0.00058</v>
@@ -16490,7 +16543,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B22">
         <v>0.00045</v>
@@ -16540,49 +16593,49 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B23">
-        <v>0.00041</v>
+        <v>0.00044</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="D23">
-        <v>0.00084</v>
+        <v>0.00079</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.00053</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00033</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.00181</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.00216</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.00189</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -16590,49 +16643,49 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B24">
-        <v>0.00038</v>
+        <v>0.00041</v>
       </c>
       <c r="C24">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00066</v>
+        <v>0.00084</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.00053</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.00033</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.00181</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.00189</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -16640,7 +16693,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25">
         <v>0.00032</v>
@@ -16670,7 +16723,7 @@
         <v>0.00037</v>
       </c>
       <c r="K25">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="L25">
         <v>0.00133</v>
@@ -16690,7 +16743,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26">
         <v>0.00028</v>
@@ -16740,7 +16793,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27">
         <v>0.00024</v>
@@ -16770,7 +16823,7 @@
         <v>0.00112</v>
       </c>
       <c r="K27">
-        <v>0.0014</v>
+        <v>0.00139</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -16790,7 +16843,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B28">
         <v>0.00023</v>
@@ -16840,7 +16893,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29">
         <v>0.00021</v>
@@ -16890,7 +16943,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30">
         <v>0.0002</v>
@@ -16920,7 +16973,7 @@
         <v>0.00121</v>
       </c>
       <c r="K30">
-        <v>0.0007</v>
+        <v>0.00069</v>
       </c>
       <c r="L30">
         <v>0.00067</v>
@@ -16940,34 +16993,34 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31">
         <v>0.00019</v>
       </c>
       <c r="C31">
-        <v>0.0003</v>
+        <v>0.00035</v>
       </c>
       <c r="D31">
-        <v>6.999999999999999E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.00041</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.00076</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.0003</v>
+        <v>0.00166</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.00013</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -16982,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -16990,34 +17043,34 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="C32">
-        <v>0.00034</v>
+        <v>0.0003</v>
       </c>
       <c r="D32">
-        <v>2E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.00076</v>
       </c>
       <c r="H32">
-        <v>0.0016</v>
+        <v>0.0003</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>8.000000000000001E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -17032,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -17040,7 +17093,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33">
         <v>0.00017</v>
@@ -17090,7 +17143,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34">
         <v>9.000000000000001E-05</v>
@@ -17140,7 +17193,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35">
         <v>8.000000000000001E-05</v>
@@ -17190,7 +17243,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36">
         <v>6E-05</v>
@@ -17220,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.00187</v>
+        <v>0.00185</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -17240,7 +17293,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37">
         <v>6E-05</v>
@@ -17290,7 +17343,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38">
         <v>6E-05</v>
@@ -17340,7 +17393,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39">
         <v>4E-05</v>
@@ -17382,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0.00026</v>
+        <v>0.00027</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -17390,7 +17443,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40">
         <v>4E-05</v>
@@ -17440,7 +17493,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41">
         <v>3E-05</v>
@@ -17490,7 +17543,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42">
         <v>3E-05</v>
@@ -17540,7 +17593,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43">
         <v>2E-05</v>
@@ -17590,7 +17643,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44">
         <v>2E-05</v>
@@ -17640,7 +17693,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45">
         <v>2E-05</v>
@@ -17690,7 +17743,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46">
         <v>1E-05</v>
@@ -17740,7 +17793,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47">
         <v>1E-05</v>
@@ -17790,7 +17843,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B48">
         <v>1E-05</v>
@@ -17840,7 +17893,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B49">
         <v>1E-05</v>
@@ -17890,7 +17943,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B50">
         <v>0</v>
